--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/4_Ağrı_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/4_Ağrı_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{977A3AD1-5632-4B93-BF61-A408DE0A4AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A295FF-A37D-4EFD-A80A-7C97F9288CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="662" xr2:uid="{252CAAFE-6B26-4441-8E29-C475DDDD18ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{24B3C573-79F7-4392-8BE2-CE373CD9A3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -982,15 +982,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{045C8ED7-9967-4050-A43D-4C323948A3B1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9FD13F7C-0429-492B-BD10-DE03A0AB0060}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{28EE3588-A932-411C-9384-C2C6F40D40AD}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{70D9D5BE-888D-4F02-BAB6-CA59D600EF42}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{FF16B58B-0935-43E7-9D5E-CF58D83BABFC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{80195232-C458-4574-BC75-479E80A46678}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B45851C4-7270-457D-BC50-8588CEA451A1}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{48384BEF-552E-4AEC-B017-C0F66CE7575A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{10A60480-19C6-45D1-B126-60F340102085}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A41E7CE7-D58B-4ACC-9F42-D10422EF6374}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6AAAC02F-9431-4A76-8FD6-B77A3996C9B5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{80331525-A4D1-4EB7-B199-43349A8B4CE8}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{0CEC43E6-B4D8-4093-9F6A-FFDB139FFA9B}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{73EB2E80-2171-47EA-B99C-82922C5A0481}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{35F635A8-23A0-4E06-87B6-05CAA3FE452A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{35997882-7E45-49D3-BE10-5B8731F1E610}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{5C7E73F2-F4D4-45B7-B465-EDEDCA433978}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{FF76DC90-3D30-4404-9578-D93B41A45638}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1360,7 +1360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B15F4D-DB9F-4A76-BF79-A211BA874A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED03722-56EC-4B2E-9A73-81A212D5A51A}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2645,17 +2645,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC07DFBF-1738-4DBD-AFEC-7E48331B4A56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{903C3343-2FDE-4993-80FA-0182E1AB7F8B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E7E5E043-7AD5-4235-950A-38B07ED0D1EB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91F8E1D9-E0CF-4388-AE54-65D65E1F339B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32ED502C-9D98-44FD-86C1-F34F9FD64C58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C331D4DD-3D46-4D0F-8BC0-0E04CF73C53A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC47D774-1100-4AB1-885B-2E4050DBE9B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4CE2919-2F10-4616-92B3-ACC4D97D46D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D6A5F067-DC9E-4D1D-A1D4-C186EC4E0F9E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0C5E5B49-0F22-4327-AE59-254E8AD2E014}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1525BA7C-25E4-445C-A35E-01E35A1F7408}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A1320A1-E639-4819-8368-213DB6B7C46C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55DA0129-E47C-426B-B367-7DB0576DE697}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{26C19E42-AA90-4BF1-A6A5-958F9A9526D2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73BFD7BD-46E8-416A-90DB-C65D305DB366}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A7DAB12-12DD-43B8-8792-CA52E5FF4B24}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{769CBFB1-475A-4C69-A9E5-F3AD4ACDE89C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{92506E41-7E23-4C98-A34B-25F659C23547}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45CC03E7-FBDC-495B-BA62-9F7ED2602534}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8B1D2FD6-518A-4249-A218-840BB2D93005}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{826BB87E-97BB-4010-A45D-03446A4084E3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31077428-D279-4D97-BED6-4A423A4329FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2668,7 +2668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA4D844-DF6C-4BF7-AC95-4AA5606F7843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693BB58-6A4B-4886-AE04-F05A911FD42B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -3951,17 +3951,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{84B393D5-1F65-4466-B058-D0BB8C603C5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2124EB0F-3654-429D-9076-6DD0ECF27A65}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87428161-82DD-4743-AB7A-C49F929682C0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F150FFA-8EE6-4411-BF92-A045C7B52ACC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7AE7E321-FF05-4A08-AAC0-443547036CB2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C919E931-42D7-4F29-94C6-E9FC1D6F2F57}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1BD0064-C683-42E6-9091-EBAF12965376}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3EB95BF1-A96B-469B-8F45-0204B457ABB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3790D77D-8633-4770-B795-8043F832D6E3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EA2FEC4A-1886-446E-923B-FD278A02C4E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DE238F1-D319-491D-AF5B-34B871BAE932}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D929A864-D8C1-48B7-BF2B-82FC78E13A64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9FB852E-AF69-41B2-96E3-EBC92A892E52}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4374DEA5-53D7-47A8-B941-F8A8CA63D3E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4232850F-F2C2-4A86-953F-E52E602AE329}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A429278F-7C67-4183-80FD-7F6AF4DDD86D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94C65410-14E2-48CB-B7D8-10220F59EA90}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D99DB99-03FF-4BCC-95A7-A9FE16446627}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F93E99CD-CBDC-4F00-B3E7-4BD34C772539}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{31F6E4E4-AE88-453B-B21C-A77AAA459950}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{05607907-95C0-448A-91B6-96CBCCDC598D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8C59F3E-3AC3-4020-B813-BAFEA7BEE5DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3974,7 +3974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC0719B-520F-4891-90E5-3F15C40A43E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EABB683-F875-4553-A5B3-25858C56473D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -5251,17 +5251,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C102C907-D2E6-4C9C-ADCC-E8882122FE23}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80AACBE0-97EE-4F83-9D2C-DE24AB2D2938}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B38A0FD-9753-4C68-8045-E6CBD66CBAAC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77A6C204-6375-4DE1-A514-64A34A772EE2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CE0BE751-015D-4C4D-86B6-EF3E78303625}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F064B00-5FA8-4F15-9DCA-8D55BED0BC07}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12037F1C-88C2-474D-98FE-FC7A6076BF51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0589D32-70BD-4914-8225-46731439E053}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{099A3535-6DE4-4F64-B4CC-5E3EC4BECD83}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E8C5C2C9-51DF-4183-9574-74A0519B0D77}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCCEDADD-6863-4E92-9166-6A48CFCC6152}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F293AA81-CDB5-48CD-8F64-BB111111F2F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{597E12C7-ECA2-46C8-9038-F9199D8E24DD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56299C7C-E769-40E6-A95B-628E93485CAA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3942BF6-48A4-4D06-9B4E-49B5CC685842}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07066F8D-86FC-4C2B-B9CF-371BEB4030AF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{31ED5946-47CF-48E0-9599-C2AD6C71E7AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5E47718-7205-4A91-883A-8D0954B913BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64DDBD55-B1F9-42CD-A32A-6D33C1DF8CE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9194C73C-44F5-42B6-BF39-2A593CA9472D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{433084F4-534D-4BAC-98E0-82E61392AF81}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39B3686B-C2E2-4FFD-80CE-90F6482DD3EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5274,7 +5274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAF4338-A8B6-4B94-8A07-A092776FA7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE71B07-6DB3-4A70-BB05-BFED032EEE25}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -6551,17 +6551,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFAE92B6-5B7E-4C76-B7BF-137C55215FB2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52158260-D1A0-4F61-9598-8C9F22A01E3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0ED7E715-C9AE-445C-B2B6-13E3F9D33AFA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA946018-3C1B-4EF9-BC0C-24DF93917D46}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4CD29AA-7B5B-4C8A-805E-59DDA974A021}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F92D8B51-0202-4C9F-AB63-C9B83B8E66FB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5CF4066-88AA-412C-B047-3D516627D7A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E578B7E-18B6-4955-A7C1-0D15FD47E5E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD61982E-BE25-4962-8622-DF966AD10AC4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D38E23E-D7CE-42B4-B882-71DACD92EE34}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BFCF350D-BC75-4A40-8509-75F393C30338}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC082EB3-4686-429B-8AAD-9CC0EA8B6D63}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BC2DF5B-5B8B-42FA-868E-80834BFEC130}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6352A79D-7D2C-4227-8F18-54E8D054B0F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{718A76D4-1CCA-42C2-9782-5EAD747FE374}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{171747B6-0352-4DE4-A912-60822AD59D40}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F065F797-FEAB-465E-A8E7-495E801D61ED}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4339A8F8-7C77-4C47-81B2-B7F64AC6A5CF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED81A3EC-2A6E-4204-8398-1D0002A56909}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3663E27B-4AC4-4481-88A1-10FACB5DB546}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A4315215-176A-4806-B5FF-73FE565A03B1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58302576-F2C5-46F5-9E76-033B1E1FD617}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6574,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7042504-789E-4742-9034-37F89CB1DBA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A057C6-879A-426C-9652-58861B29696C}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7856,17 +7856,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9A9D1F6F-0BE8-4601-A2A9-06E7ED088039}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D5E2839-99C4-4155-AF77-8C32CAB4288D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BB11DEAC-209D-4D68-A7BC-50963520906E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{398F80C3-8147-4591-B4ED-5234FBB84559}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F9708F85-A879-4F24-8C0B-1412494C82CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1820AA28-06DE-4E66-AD82-908AA77F3286}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDCB0421-EDB2-45CD-AE3A-4B7A4F78084B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{396C1B0E-0FC3-45A1-AB36-583F0691AB24}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{32760A54-00CB-44C7-90D1-ADD8DEBED3FC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0CE6FAC9-99ED-4E02-BD90-B13F5BE16F7D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12A1B6E7-9F7D-450E-B199-5172C6C5C7BC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{062BF65D-BA38-4902-BFFD-1C1912729294}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E8375C9A-EC63-4851-BF1F-A4FF5E93802F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E1FC8B5-8FA8-46BC-BACB-674D62919E52}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FEB79992-79CF-45AF-8068-8DCF5B12C8C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B874F98D-068A-4F73-A294-EA3A125D079C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15880554-90AD-40B1-BDD4-C48FB64CBEC7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E820BE3-E9DD-4BD2-9C8B-BC87597411FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5B9E63B-A188-494A-96A6-46E92A98E763}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A59E497B-80A3-48C8-8004-D40BFB0DD622}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F3C72121-C020-42D9-90D5-92A19F5A9040}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CA587C2-1D0A-4B3D-882D-34255B46C95D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7879,7 +7879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00ECF6-C671-47E5-B828-B08B5A36D1CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCDD038-A019-4061-8BD5-788BBE1B85A3}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9161,17 +9161,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F7016AC-20B2-4383-8131-264B9983C870}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CB5701E5-0732-4A58-B854-21C39627AFEC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F052C64F-8CB9-472D-98CE-DBE57DFEB53F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{93004F9F-52DB-4B0D-ABD9-4DAB9A091222}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{513CC4A1-FE19-4272-98DF-E7087DC8A2B5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D9AB2641-A883-466F-A935-5493296D953A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F8DA6FE-089A-4E47-94CF-A4F3514E89DB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66BFD540-27CF-49D0-818E-947E7434D84B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{64339168-9098-47A1-A3A3-5EB5E669C0A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{02E8579E-D8E9-4D03-88C8-12EBF7F54402}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6755F737-E0AA-4A74-B53A-77CD9C1BCBCF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE2D4564-1D1C-481C-AEE3-0E0854432C28}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E670FF7-DB34-4161-AE2A-671B69BE9549}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{17325DAC-A7DD-4F3D-BF65-0A0D7A7BDD82}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13EF4B23-A4C7-4F76-9C95-DDFB317C5CCD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25F39993-34D1-423C-990E-C3B4EA552403}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DA89DA2-F1CC-4455-95D1-02036CA43E87}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59E69ED5-EBC2-4E2F-BEC0-BA3E7BBBFABE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A600A5F3-8AD0-4DAC-9F47-70D7E6B2059F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9AFB9244-C548-44F1-B841-83855B4E3E02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3044CDE9-4B1E-48B6-B617-5D175910D5E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE8E90F4-B627-4462-8A6A-CF788552047B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9184,7 +9184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D790BD95-FB3A-433C-A474-548D1FF1E6BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D409F9D7-38BE-4B4D-BBA1-9B4BC5A874D9}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10466,17 +10466,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D4DA59A-76B5-4CBC-8835-B6D03711FCCE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EFB47F8-8A45-47C4-B679-B7F6B08CC4F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{85B6066C-A0BA-4173-B0BD-220CBE64E3FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE5F1E3E-D729-4B0E-AC8C-9E9A18D48546}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92FDA475-EA7A-47BA-B3A4-BE01D1836212}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7108A625-B59A-426C-B73D-396195C802FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B4A3F89-172D-4A0E-A6A8-D73FBF767464}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA272848-4BFC-4448-AA7A-5CF480264E77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CCF22E2D-EBFF-4BE6-B3BE-35F9112CEC76}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{85DD320F-A236-4B65-93C0-D82155AEC010}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A71A2785-4107-4EB3-B567-95B6DFBD2978}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8EB1CA5A-D770-492A-ABD2-B46B7A7D0815}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75A84160-E7E6-4C2B-A31E-F31AC6778678}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E022D68-E1CC-4FEA-A72B-4041BDEBED85}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B7B4185-CD4B-4A60-824C-405F5AA96560}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{14055B2C-EBB8-4F49-BC87-F5F17E6BBE17}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61BBD01C-BB70-4169-B7BD-8510C5B3F13D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22BC09D6-6B4A-4D38-8F23-B498ABC1CC11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A9DE3F8-6C15-48B7-B291-D27C42028966}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{87AFB942-C139-4CA0-9844-1D43D36E640E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5B1B4161-D30D-4107-A05B-7B2BC84EE6FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F1380A0-DE75-4AF3-AB65-99E0615AD977}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10489,7 +10489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26473C1A-8928-4089-BE9E-D8DC597B41CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F510342D-0E26-427A-89B0-64D20E3C018A}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11771,17 +11771,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67F4397D-EA46-4BED-8566-8DDB48B3D46A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8DC3F26-948A-40E1-920F-A3885AE97789}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4558E453-F818-4586-A7F6-34705700C753}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32FEB07D-8DB1-4878-8525-D9EB27815E60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A360845D-1D31-491D-8378-4F8629531C99}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43DC9A5B-6E8D-4027-A938-80ABABA42EE0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EB03C0A1-A425-4A21-804D-03D8C11B866F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74532112-5869-494E-AA5E-54604DF02D18}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{56F3ABE0-02E2-42A5-8744-3054CC94714F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{69AC5770-E48F-4C74-A386-2D387DF890E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86336856-1B47-4397-B337-04113EF9EFCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7FB51722-8178-4775-A79C-CF5E45CE3A11}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D110851-2C79-4FEC-8C6E-E53A9B184048}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B833C410-A3C9-4B01-896C-9F176F343859}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E1D0152-423B-429C-B664-C02B9F857EBC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB87941D-9F24-40DB-9331-A09AC96E650E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A04D58CB-45DB-4ADD-B649-DE6B682D2027}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2F96790-18DC-4180-8E75-754E6CB2BBE9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C65A99DE-2B84-43D6-9446-721F99325113}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AC1DDF4C-D6DA-44D1-BC08-6805559CFB5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{97230896-CBC1-4780-8D91-4CB0B78CDDDE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BDFABD29-AE1F-473B-A70D-CB96A3165611}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11794,7 +11794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E87557-5FF1-4FFE-BD90-CC0D98AB85D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D6A5F8-E7DD-413A-80A2-1AE39BF6FAA8}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13076,17 +13076,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A6203BD-1ED0-43F1-8473-7C0113EED849}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E91C5F92-FA34-41A2-986C-480741DC39EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46CE0374-B165-4145-99F4-E64B9D23270B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47EAD75F-E739-4426-9002-49832EF5602F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B3D3CB1-DE10-4645-9D16-527C32FBE9BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F6CCB5A-1593-40EC-941D-A8963AFA0D36}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7FDBA3B1-B99E-4A9F-BA28-6C689A31AAC9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F62B9D43-3CEE-45ED-A77C-A3257CB66A37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9EDC2DDD-1819-444F-89FB-06E7906C9386}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0BA23EFE-9AEC-4E1B-AC6F-39ABC6DFBF79}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BB123F8-403B-470B-A3BB-91E3A2DA9A0C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F50D42F6-F666-42A9-9BC8-FA55E20EBA01}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFA88EFD-DCA4-4ECB-B69C-FF0698CE47EF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{70880660-7D71-4FA4-840E-5053A03D6A99}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA5D8CFC-6198-4794-AA23-70AA88C30347}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2326798D-EB31-44DC-8F9C-908C5B0CF6A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0D57628-641A-4C38-963D-635471DE6A64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9A0D3EB-2B83-4EED-BD88-FB4D35404C44}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC079366-C291-42C1-89DE-2780EE79145E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0D883F9-3B85-4D9C-909C-96062D1B4113}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{054E272E-C0FC-4A13-B6CE-4CD45C48CD04}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57F2FDBD-972B-46DF-874F-D61DC350DD47}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13099,7 +13099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CEE191-3611-4DCE-8948-A1F6C04A2A36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9411A47-CD66-4353-888A-289423BCA31E}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14383,17 +14383,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD8F3B7F-E407-423D-9389-A9D50B52133D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95B114AF-16EA-4941-96D9-8B004FC8EF50}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{420B9A60-8C96-48C8-9656-D0D3553AA706}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9D21C149-1390-4AE9-95F9-0D2CBEE13C9A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3455C6F-FA20-46E9-942F-89ECE9DB73B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A89DC080-4F47-4D6E-9A24-713E7A79D753}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48894780-7FE5-4EB5-BF6C-D661DF904717}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1B37CFBE-568A-45D9-B474-CE5198E9CAAA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{70B72180-CF75-41F7-B4B9-A747CF35BB0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{627CA213-8750-47DD-9A6C-F5F56AB63B8A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C29CEB9-C59A-44E9-95E8-11E061FADEEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37A7D911-ECD1-4BBB-A17E-21BC62708F00}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F156665E-841F-4EEB-8657-47B5B034CB40}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35536AD1-883A-4CA0-82BB-BC24BEC99EAD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{101508F2-6EC7-4E35-8010-A8BD5A9D4158}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1024F5F7-4509-4408-9793-497139AF3DB0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32B55C06-9D77-479C-B814-5835AB6D93C8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE846FF1-3AAD-4920-8D72-ABC4FFC24935}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80CEA99E-AD2E-45EB-B6BF-02621F25D4B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E8ED726C-DC6C-4ED7-A050-A12FB85036DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AB8F8692-8836-43CC-BB77-A095C8FD55E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EAABD53-421B-4B05-BDDC-CA29E774FF05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14406,7 +14406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DCECF7-B0B4-4D48-8748-E6D9BE5D0F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F059753-197C-4F7D-BAE3-9BEC592C6AFF}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -15689,17 +15689,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48764FD1-233F-4C2D-AE26-B812AF8EBBEB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E662A7A7-148E-4610-B5F7-8C6E3B0B930F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39157DD4-0F46-497F-BB03-100F8CA02A06}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{827E33EF-D8FA-46EB-A713-640FB26DCDE1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{998E23F6-1889-4141-A374-0CD5C7021264}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B88FBB0-4EC6-4EB4-936A-9E87085E899C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9055A820-D947-4DA0-950B-29CA3D0CA91E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3DD3F7E4-1E23-45AA-BD87-9B3D4DC6ACB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2EFDA559-F41F-463B-A91A-D94E960090E5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2E32AF33-E811-441E-8703-42F192E7BA51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{175CF55F-DEB3-4E9F-A172-73AF33547EA3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85CF6023-9D52-46C2-BC5B-1AC0472C7526}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6530150A-213C-4EA9-A21A-652E2B38907D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8AE43880-FEA0-4320-B37E-D010B8259AAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{59BD14F7-DE57-4951-8C8F-53E73FD856D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF2832DC-73CB-48A5-A302-2C248A63DA0A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06E5B8B8-513A-4DA1-85E5-E74FAC857E7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C130EBA-2457-4734-A03A-517FD07DFE49}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78F7F44F-5C76-4A81-A901-F26B95AF5651}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C166A552-C668-4FD3-ACBA-5FE4E1DA7E6B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D90B1046-CAE3-4B1D-B343-76F0D3D9EFBE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29372CF1-437D-4A6F-8D1A-6B1F01522B33}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15712,7 +15712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23A238C-520D-4156-A430-E352D8664544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D29F2B-B733-410D-8849-2FE4E2E97847}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F106"/>
   <sheetViews>
@@ -16995,17 +16995,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{066BCCBE-E5CF-48E4-854A-D3A9884921FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{655B45F0-945F-466A-BF65-17998E1336BC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C07CE472-42AB-4A0F-BCF3-A7EE4A1CEFB3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{081CBDE8-320A-4E2F-BB3A-46BFF2BB6D02}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7E11661-868D-4601-9FA3-DEF4D477E2E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FF81792-36D6-498D-8B26-EDE54422BE35}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DCC8157-0BC7-47D6-AA61-52E01767F77A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A508E70-A06B-4E93-9C26-F7E6FCDD71D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{27034377-E43E-4C02-85D2-7866A390DBF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9C2ED701-AF91-4213-AB8F-1D9C8A6B14FD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43639DC1-4BC9-47B1-A443-F608F06D1889}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC93FAEE-A7E2-4686-8881-E631B8987992}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5894D91F-11ED-4C8B-942D-72D52737ECEA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9553B80D-DA4A-4153-ADB8-1084E077A6E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D01DF8AD-7A4E-428F-9D02-FFBA1EE8C483}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92D43CA5-798C-49BA-BF3C-D6BB5BFAC4EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B826A4EB-F546-4B6F-8149-8FFAECC46523}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DD8DF74-AD35-4DA4-8BA3-7CEA33705F65}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{680AB847-D5B1-4509-A36C-ECD92C392558}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1A94E4B0-9AD0-488E-8060-E9E73904EE93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{94534188-9568-42E2-8FED-48F8380EB1BF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7B32D20-2349-47C0-B6EF-39AB57F7C945}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
